--- a/datos/datosExcel/paginaDiez.xlsx
+++ b/datos/datosExcel/paginaDiez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MOMY\Documents\complementario-3125033\datos\datosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D6AB8A-62E0-43B8-8B28-A62726B2BB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA143669-2017-4E7D-A5E3-A3DD24924C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{9F4C23D9-C0D5-48D0-B612-579DC1D1703D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9F4C23D9-C0D5-48D0-B612-579DC1D1703D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Cero</t>
+  </si>
+  <si>
+    <t>Cinco</t>
+  </si>
+  <si>
+    <t>Diez</t>
+  </si>
+  <si>
+    <t>Quince</t>
+  </si>
+  <si>
+    <t>Veinte</t>
+  </si>
+  <si>
+    <t>Veinticinco</t>
+  </si>
+  <si>
+    <t>Treinta</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,7 +409,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +438,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -438,8 +464,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -464,8 +490,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
+      <c r="A4" t="s">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>23</v>
@@ -490,8 +516,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>15</v>
+      <c r="A5" t="s">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>23</v>
@@ -516,8 +542,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>20</v>
+      <c r="A6" t="s">
+        <v>4</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -542,8 +568,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>25</v>
+      <c r="A7" t="s">
+        <v>5</v>
       </c>
       <c r="B7">
         <v>23</v>
@@ -568,8 +594,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>30</v>
+      <c r="A8" t="s">
+        <v>6</v>
       </c>
       <c r="B8">
         <v>23</v>
